--- a/Work/txrx.xlsx
+++ b/Work/txrx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C3199F4-5DE9-4323-A593-AB4D7D9C3A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE3D2B9-1818-468D-ABA2-7B7DA9B54C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="135" windowWidth="19650" windowHeight="14970" xr2:uid="{BDB2FC3A-18B0-486F-BBD0-5A5E3C18A1F5}"/>
+    <workbookView xWindow="3360" yWindow="210" windowWidth="22980" windowHeight="14970" xr2:uid="{BDB2FC3A-18B0-486F-BBD0-5A5E3C18A1F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="81">
-  <si>
-    <t>begin_&lt;grid&gt; Untitled Rx Grid (3)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="92">
   <si>
     <t>project_id 13</t>
   </si>
@@ -60,9 +57,6 @@
     <t>AutoPatternScale</t>
   </si>
   <si>
-    <t>ShowDescription yes</t>
-  </si>
-  <si>
     <t>CVsVisible no</t>
   </si>
   <si>
@@ -93,21 +87,9 @@
     <t>end_&lt;reference&gt;</t>
   </si>
   <si>
-    <t>side1 1637.29858</t>
-  </si>
-  <si>
-    <t>side2 1427.89490</t>
-  </si>
-  <si>
-    <t>spacing 14.00000</t>
-  </si>
-  <si>
     <t>nVertices 1</t>
   </si>
   <si>
-    <t>1002.624640000000000 1.571070000000000 50.000000000000000</t>
-  </si>
-  <si>
     <t>end_&lt;location&gt;</t>
   </si>
   <si>
@@ -135,12 +117,6 @@
     <t xml:space="preserve">begin_&lt;pattern&gt; </t>
   </si>
   <si>
-    <t>antenna 1</t>
-  </si>
-  <si>
-    <t>waveform -1</t>
-  </si>
-  <si>
     <t>rotation_x 0.00000</t>
   </si>
   <si>
@@ -174,9 +150,6 @@
     <t>end_&lt;grid&gt;</t>
   </si>
   <si>
-    <t>begin_&lt;route&gt; Untitled Rx Route</t>
-  </si>
-  <si>
     <t>project_id 14</t>
   </si>
   <si>
@@ -186,85 +159,10 @@
     <t>spacing 5.00000</t>
   </si>
   <si>
-    <t>nVertices 5</t>
-  </si>
-  <si>
-    <t>1534.180670000000000 663.379180000000020 50.000000000000000</t>
-  </si>
-  <si>
-    <t>1353.565270000000100 556.761979999999990 50.000000000000000</t>
-  </si>
-  <si>
-    <t>1224.901069999999900 718.291280000000030 50.000000000000000</t>
-  </si>
-  <si>
-    <t>1412.162070000000100 777.594979999999960 50.000000000000000</t>
-  </si>
-  <si>
-    <t>1534.126569999999900 663.095479999999950 50.000000000000000</t>
-  </si>
-  <si>
-    <t>end_&lt;route&gt;</t>
-  </si>
-  <si>
-    <t>begin_&lt;route&gt; Untitled Rx Route (2)</t>
-  </si>
-  <si>
     <t>project_id 15</t>
   </si>
   <si>
     <t>invisible</t>
-  </si>
-  <si>
-    <t>spacing 1.50000</t>
-  </si>
-  <si>
-    <t>nVertices 2</t>
-  </si>
-  <si>
-    <t>1534.107670000000100 662.965360000000030 0.000000000000000</t>
-  </si>
-  <si>
-    <t>1534.107670000000100 662.965360000000030 50.000000000000000</t>
-  </si>
-  <si>
-    <t>begin_&lt;route&gt; Untitled Rx Route (3)</t>
-  </si>
-  <si>
-    <t>project_id 16</t>
-  </si>
-  <si>
-    <t>1533.966320000000000 663.723719999999960 50.000000000000000</t>
-  </si>
-  <si>
-    <t>1336.449720000000100 753.113219999999960 50.000000000000000</t>
-  </si>
-  <si>
-    <t>begin_&lt;route&gt; Untitled Rx Route (4)</t>
-  </si>
-  <si>
-    <t>project_id 17</t>
-  </si>
-  <si>
-    <t>spacing 2.50000</t>
-  </si>
-  <si>
-    <t>1533.641120000000000 663.521269999999960 0.000000000000000</t>
-  </si>
-  <si>
-    <t>1533.641120000000000 663.521269999999960 50.000000000000000</t>
-  </si>
-  <si>
-    <t>begin_&lt;grid&gt; Untitled Rx Grid</t>
-  </si>
-  <si>
-    <t>project_id 18</t>
-  </si>
-  <si>
-    <t>side1 467.08350</t>
-  </si>
-  <si>
-    <t>side2 259.95938</t>
   </si>
   <si>
     <t>1079.332770000000000 537.803000000000000 50.000000000000000</t>
@@ -278,8 +176,142 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> "</t>
-    <phoneticPr fontId="1"/>
+    <t>begin_&lt;grid&gt; Dense Pine 50m Rx Grid</t>
+  </si>
+  <si>
+    <t>project_id 6</t>
+  </si>
+  <si>
+    <t>side1 467.07999</t>
+  </si>
+  <si>
+    <t>side2 259.95999</t>
+  </si>
+  <si>
+    <t>antenna 7</t>
+  </si>
+  <si>
+    <t>waveform 3</t>
+  </si>
+  <si>
+    <t>begin_&lt;grid&gt; Dense Pine 15m Rx Grid</t>
+  </si>
+  <si>
+    <t>project_id 9</t>
+  </si>
+  <si>
+    <t>1079.332770000000000 537.803000000000000 15.000000000000000</t>
+  </si>
+  <si>
+    <t>begin_&lt;grid&gt; Dense Pine 20m Rx Grid</t>
+  </si>
+  <si>
+    <t>project_id 10</t>
+  </si>
+  <si>
+    <t>1079.332770000000000 537.803000000000000 20.000000000000000</t>
+  </si>
+  <si>
+    <t>begin_&lt;grid&gt; Dense Pine 25m Rx Grid</t>
+  </si>
+  <si>
+    <t>project_id 11</t>
+  </si>
+  <si>
+    <t>1079.332770000000000 537.803000000000000 25.000000000000000</t>
+  </si>
+  <si>
+    <t>begin_&lt;grid&gt; Dense Pine 30m Rx Grid</t>
+  </si>
+  <si>
+    <t>project_id 12</t>
+  </si>
+  <si>
+    <t>1079.332770000000000 537.803000000000000 30.000000000000000</t>
+  </si>
+  <si>
+    <t>begin_&lt;grid&gt; Dense Pine 35m Rx Grid</t>
+  </si>
+  <si>
+    <t>1079.332770000000000 537.803000000000000 35.000000000000000</t>
+  </si>
+  <si>
+    <t>begin_&lt;grid&gt; Dense Pine 40m Rx Grid</t>
+  </si>
+  <si>
+    <t>1079.332770000000000 537.803000000000000 40.000000000000000</t>
+  </si>
+  <si>
+    <t>begin_&lt;grid&gt; Dense Pine 45m Rx Grid</t>
+  </si>
+  <si>
+    <t>1079.332770000000000 537.803000000000000 45.000000000000000</t>
+  </si>
+  <si>
+    <t>begin_&lt;grid&gt; Dense Pine 10m Rx Grid</t>
+  </si>
+  <si>
+    <t>project_id 23</t>
+  </si>
+  <si>
+    <t>1079.332770000000000 537.803000000000000 10.000000000000000</t>
+  </si>
+  <si>
+    <t>begin_&lt;points&gt; Tx Points 10 shokusei 3</t>
+  </si>
+  <si>
+    <t>project_id 41</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>vertical_line yes</t>
+  </si>
+  <si>
+    <t>cube_size 25.00000</t>
+  </si>
+  <si>
+    <t>visible yes</t>
+  </si>
+  <si>
+    <t>1450.247570000000000 561.187590000000000 1.000000000000000</t>
+  </si>
+  <si>
+    <t>pattern_show_arrow yes</t>
+  </si>
+  <si>
+    <t>generate_p2p yes</t>
+  </si>
+  <si>
+    <t>use_apg_acceleration no</t>
+  </si>
+  <si>
+    <t>is_transmitter yes</t>
+  </si>
+  <si>
+    <t>is_receiver no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begin_&lt;transmitter&gt; </t>
+  </si>
+  <si>
+    <t>antenna 3</t>
+  </si>
+  <si>
+    <t>rotation_y -50.00000</t>
+  </si>
+  <si>
+    <t>rotation_z 90.00000</t>
+  </si>
+  <si>
+    <t>power 30.00000</t>
+  </si>
+  <si>
+    <t>end_&lt;transmitter&gt;</t>
+  </si>
+  <si>
+    <t>end_&lt;points&gt;</t>
   </si>
 </sst>
 </file>
@@ -649,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1363716-5F0B-4494-A53F-DFAF949F99C1}">
-  <dimension ref="A1:C278"/>
+  <dimension ref="A1:C456"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
+      <selection sqref="A1:C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -663,3060 +695,5018 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B90" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B94" t="s">
         <v>56</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B96" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B97" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B98" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B104" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B116" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B117" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B118" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B119" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B120" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B121" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B123" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B125" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B126" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B127" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B128" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B130" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B131" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B132" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B134" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B135" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B136" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B137" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B138" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B139" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B140" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B141" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B142" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B143" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B145" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B149" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B150" t="s">
         <v>9</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B154" t="s">
         <v>13</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B155" t="s">
         <v>14</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B156" t="s">
         <v>15</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B157" t="s">
         <v>16</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B159" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B160" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B161" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B162" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B163" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B164" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B165" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B166" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B167" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B168" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B169" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B170" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B171" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B172" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B173" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B176" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B177" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B178" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B179" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B180" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B181" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B182" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B183" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B184" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B185" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B186" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B187" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B188" t="s">
         <v>2</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B189" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B190" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B191" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B195" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B196" t="s">
         <v>9</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B198" t="s">
         <v>11</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B199" t="s">
         <v>12</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B200" t="s">
         <v>13</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B201" t="s">
         <v>14</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B202" t="s">
         <v>15</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B203" t="s">
         <v>16</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B204" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B205" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B206" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B207" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B208" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B209" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B210" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B211" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B212" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B213" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B214" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B215" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B216" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B217" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B218" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B219" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B220" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B221" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B222" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B223" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B224" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B225" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B226" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B227" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B228" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B229" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B230" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B231" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B232" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B233" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B234" t="s">
         <v>2</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B235" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B236" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B237" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B241" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B242" t="s">
         <v>9</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B243" t="s">
         <v>10</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B244" t="s">
         <v>11</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B245" t="s">
         <v>12</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B246" t="s">
         <v>13</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B247" t="s">
         <v>14</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B248" t="s">
         <v>15</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B249" t="s">
         <v>16</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B250" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B251" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B252" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B253" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B254" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B255" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B256" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B257" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B258" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B259" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B260" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B261" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B262" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B263" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B264" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B265" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B266" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B267" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B268" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B269" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B270" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B271" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B272" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B273" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B274" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B275" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B276" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B277" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
+        <v>44</v>
+      </c>
+      <c r="B278" t="s">
+        <v>38</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A279" t="s">
+        <v>44</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A280" t="s">
+        <v>44</v>
+      </c>
+      <c r="B280" t="s">
+        <v>2</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A281" t="s">
+        <v>44</v>
+      </c>
+      <c r="B281" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A282" t="s">
+        <v>44</v>
+      </c>
+      <c r="B282" t="s">
+        <v>4</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A283" t="s">
+        <v>44</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A284" t="s">
+        <v>44</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A285" t="s">
+        <v>44</v>
+      </c>
+      <c r="B285" t="s">
+        <v>39</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A286" t="s">
+        <v>44</v>
+      </c>
+      <c r="B286" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A287" t="s">
+        <v>44</v>
+      </c>
+      <c r="B287" t="s">
+        <v>8</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A288" t="s">
+        <v>44</v>
+      </c>
+      <c r="B288" t="s">
+        <v>9</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A289" t="s">
+        <v>44</v>
+      </c>
+      <c r="B289" t="s">
+        <v>10</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A290" t="s">
+        <v>44</v>
+      </c>
+      <c r="B290" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A291" t="s">
+        <v>44</v>
+      </c>
+      <c r="B291" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A292" t="s">
+        <v>44</v>
+      </c>
+      <c r="B292" t="s">
+        <v>13</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A293" t="s">
+        <v>44</v>
+      </c>
+      <c r="B293" t="s">
+        <v>14</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A294" t="s">
+        <v>44</v>
+      </c>
+      <c r="B294" t="s">
+        <v>15</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A295" t="s">
+        <v>44</v>
+      </c>
+      <c r="B295" t="s">
+        <v>16</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A296" t="s">
+        <v>44</v>
+      </c>
+      <c r="B296" t="s">
+        <v>48</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A297" t="s">
+        <v>44</v>
+      </c>
+      <c r="B297" t="s">
+        <v>49</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A298" t="s">
+        <v>44</v>
+      </c>
+      <c r="B298" t="s">
+        <v>40</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A299" t="s">
+        <v>44</v>
+      </c>
+      <c r="B299" t="s">
+        <v>17</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A300" t="s">
+        <v>44</v>
+      </c>
+      <c r="B300" t="s">
+        <v>67</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A301" t="s">
+        <v>44</v>
+      </c>
+      <c r="B301" t="s">
+        <v>18</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A302" t="s">
+        <v>44</v>
+      </c>
+      <c r="B302" t="s">
+        <v>19</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A303" t="s">
+        <v>44</v>
+      </c>
+      <c r="B303" t="s">
+        <v>20</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A304" t="s">
+        <v>44</v>
+      </c>
+      <c r="B304" t="s">
+        <v>21</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A305" t="s">
+        <v>44</v>
+      </c>
+      <c r="B305" t="s">
+        <v>22</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A306" t="s">
+        <v>44</v>
+      </c>
+      <c r="B306" t="s">
+        <v>23</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A307" t="s">
+        <v>44</v>
+      </c>
+      <c r="B307" t="s">
+        <v>24</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A308" t="s">
+        <v>44</v>
+      </c>
+      <c r="B308" t="s">
+        <v>25</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A309" t="s">
+        <v>44</v>
+      </c>
+      <c r="B309" t="s">
+        <v>26</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A310" t="s">
+        <v>44</v>
+      </c>
+      <c r="B310" t="s">
+        <v>50</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A311" t="s">
+        <v>44</v>
+      </c>
+      <c r="B311" t="s">
+        <v>51</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A312" t="s">
+        <v>44</v>
+      </c>
+      <c r="B312" t="s">
+        <v>27</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A313" t="s">
+        <v>44</v>
+      </c>
+      <c r="B313" t="s">
+        <v>28</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A314" t="s">
+        <v>44</v>
+      </c>
+      <c r="B314" t="s">
+        <v>29</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A315" t="s">
+        <v>44</v>
+      </c>
+      <c r="B315" t="s">
+        <v>30</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A316" t="s">
+        <v>44</v>
+      </c>
+      <c r="B316" t="s">
+        <v>31</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A317" t="s">
+        <v>44</v>
+      </c>
+      <c r="B317" t="s">
+        <v>32</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A318" t="s">
+        <v>44</v>
+      </c>
+      <c r="B318" t="s">
+        <v>33</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A319" t="s">
+        <v>44</v>
+      </c>
+      <c r="B319" t="s">
+        <v>34</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A320" t="s">
+        <v>44</v>
+      </c>
+      <c r="B320" t="s">
+        <v>35</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A321" t="s">
+        <v>44</v>
+      </c>
+      <c r="B321" t="s">
+        <v>36</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A322" t="s">
+        <v>44</v>
+      </c>
+      <c r="B322" t="s">
+        <v>37</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A323" t="s">
+        <v>44</v>
+      </c>
+      <c r="B323" t="s">
+        <v>68</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A324" t="s">
+        <v>44</v>
+      </c>
+      <c r="B324" t="s">
+        <v>41</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A325" t="s">
+        <v>44</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A326" t="s">
+        <v>44</v>
+      </c>
+      <c r="B326" t="s">
+        <v>2</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A327" t="s">
+        <v>44</v>
+      </c>
+      <c r="B327" t="s">
+        <v>3</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A328" t="s">
+        <v>44</v>
+      </c>
+      <c r="B328" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A329" t="s">
+        <v>44</v>
+      </c>
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A330" t="s">
+        <v>44</v>
+      </c>
+      <c r="B330" t="s">
+        <v>6</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A331" t="s">
+        <v>44</v>
+      </c>
+      <c r="B331" t="s">
+        <v>39</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A332" t="s">
+        <v>44</v>
+      </c>
+      <c r="B332" t="s">
+        <v>7</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A333" t="s">
+        <v>44</v>
+      </c>
+      <c r="B333" t="s">
+        <v>8</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A334" t="s">
+        <v>44</v>
+      </c>
+      <c r="B334" t="s">
+        <v>9</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A335" t="s">
+        <v>44</v>
+      </c>
+      <c r="B335" t="s">
+        <v>10</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A336" t="s">
+        <v>44</v>
+      </c>
+      <c r="B336" t="s">
+        <v>11</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A337" t="s">
+        <v>44</v>
+      </c>
+      <c r="B337" t="s">
+        <v>12</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A338" t="s">
+        <v>44</v>
+      </c>
+      <c r="B338" t="s">
+        <v>13</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A339" t="s">
+        <v>44</v>
+      </c>
+      <c r="B339" t="s">
+        <v>14</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A340" t="s">
+        <v>44</v>
+      </c>
+      <c r="B340" t="s">
+        <v>15</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A341" t="s">
+        <v>44</v>
+      </c>
+      <c r="B341" t="s">
+        <v>16</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A342" t="s">
+        <v>44</v>
+      </c>
+      <c r="B342" t="s">
+        <v>48</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A343" t="s">
+        <v>44</v>
+      </c>
+      <c r="B343" t="s">
+        <v>49</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A344" t="s">
+        <v>44</v>
+      </c>
+      <c r="B344" t="s">
+        <v>40</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A345" t="s">
+        <v>44</v>
+      </c>
+      <c r="B345" t="s">
+        <v>17</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A346" t="s">
+        <v>44</v>
+      </c>
+      <c r="B346" t="s">
+        <v>69</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A347" t="s">
+        <v>44</v>
+      </c>
+      <c r="B347" t="s">
+        <v>18</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A348" t="s">
+        <v>44</v>
+      </c>
+      <c r="B348" t="s">
+        <v>19</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A349" t="s">
+        <v>44</v>
+      </c>
+      <c r="B349" t="s">
+        <v>20</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A350" t="s">
+        <v>44</v>
+      </c>
+      <c r="B350" t="s">
+        <v>21</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A351" t="s">
+        <v>44</v>
+      </c>
+      <c r="B351" t="s">
+        <v>22</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A352" t="s">
+        <v>44</v>
+      </c>
+      <c r="B352" t="s">
+        <v>23</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A353" t="s">
+        <v>44</v>
+      </c>
+      <c r="B353" t="s">
+        <v>24</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A354" t="s">
+        <v>44</v>
+      </c>
+      <c r="B354" t="s">
+        <v>25</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A355" t="s">
+        <v>44</v>
+      </c>
+      <c r="B355" t="s">
+        <v>26</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A356" t="s">
+        <v>44</v>
+      </c>
+      <c r="B356" t="s">
+        <v>50</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A357" t="s">
+        <v>44</v>
+      </c>
+      <c r="B357" t="s">
+        <v>51</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A358" t="s">
+        <v>44</v>
+      </c>
+      <c r="B358" t="s">
+        <v>27</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A359" t="s">
+        <v>44</v>
+      </c>
+      <c r="B359" t="s">
+        <v>28</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A360" t="s">
+        <v>44</v>
+      </c>
+      <c r="B360" t="s">
+        <v>29</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A361" t="s">
+        <v>44</v>
+      </c>
+      <c r="B361" t="s">
+        <v>30</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A362" t="s">
+        <v>44</v>
+      </c>
+      <c r="B362" t="s">
+        <v>31</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A363" t="s">
+        <v>44</v>
+      </c>
+      <c r="B363" t="s">
+        <v>32</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A364" t="s">
+        <v>44</v>
+      </c>
+      <c r="B364" t="s">
+        <v>33</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A365" t="s">
+        <v>44</v>
+      </c>
+      <c r="B365" t="s">
+        <v>34</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A366" t="s">
+        <v>44</v>
+      </c>
+      <c r="B366" t="s">
+        <v>35</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A367" t="s">
+        <v>44</v>
+      </c>
+      <c r="B367" t="s">
+        <v>36</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A368" t="s">
+        <v>44</v>
+      </c>
+      <c r="B368" t="s">
+        <v>37</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A369" t="s">
+        <v>44</v>
+      </c>
+      <c r="B369" t="s">
+        <v>70</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A370" t="s">
+        <v>44</v>
+      </c>
+      <c r="B370" t="s">
+        <v>71</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A371" t="s">
+        <v>44</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A372" t="s">
+        <v>44</v>
+      </c>
+      <c r="B372" t="s">
+        <v>2</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A373" t="s">
+        <v>44</v>
+      </c>
+      <c r="B373" t="s">
+        <v>3</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A374" t="s">
+        <v>44</v>
+      </c>
+      <c r="B374" t="s">
+        <v>4</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A375" t="s">
+        <v>44</v>
+      </c>
+      <c r="B375" t="s">
+        <v>5</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A376" t="s">
+        <v>44</v>
+      </c>
+      <c r="B376" t="s">
+        <v>6</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A377" t="s">
+        <v>44</v>
+      </c>
+      <c r="B377" t="s">
+        <v>39</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A378" t="s">
+        <v>44</v>
+      </c>
+      <c r="B378" t="s">
+        <v>7</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A379" t="s">
+        <v>44</v>
+      </c>
+      <c r="B379" t="s">
+        <v>8</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A380" t="s">
+        <v>44</v>
+      </c>
+      <c r="B380" t="s">
+        <v>9</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A381" t="s">
+        <v>44</v>
+      </c>
+      <c r="B381" t="s">
+        <v>10</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A382" t="s">
+        <v>44</v>
+      </c>
+      <c r="B382" t="s">
+        <v>11</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A383" t="s">
+        <v>44</v>
+      </c>
+      <c r="B383" t="s">
+        <v>12</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A384" t="s">
+        <v>44</v>
+      </c>
+      <c r="B384" t="s">
+        <v>13</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A385" t="s">
+        <v>44</v>
+      </c>
+      <c r="B385" t="s">
+        <v>14</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A386" t="s">
+        <v>44</v>
+      </c>
+      <c r="B386" t="s">
+        <v>15</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A387" t="s">
+        <v>44</v>
+      </c>
+      <c r="B387" t="s">
+        <v>16</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A388" t="s">
+        <v>44</v>
+      </c>
+      <c r="B388" t="s">
+        <v>48</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A389" t="s">
+        <v>44</v>
+      </c>
+      <c r="B389" t="s">
+        <v>49</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A390" t="s">
+        <v>44</v>
+      </c>
+      <c r="B390" t="s">
+        <v>40</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A391" t="s">
+        <v>44</v>
+      </c>
+      <c r="B391" t="s">
+        <v>17</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A392" t="s">
+        <v>44</v>
+      </c>
+      <c r="B392" t="s">
+        <v>72</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A393" t="s">
+        <v>44</v>
+      </c>
+      <c r="B393" t="s">
+        <v>18</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A394" t="s">
+        <v>44</v>
+      </c>
+      <c r="B394" t="s">
+        <v>19</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A395" t="s">
+        <v>44</v>
+      </c>
+      <c r="B395" t="s">
+        <v>20</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A396" t="s">
+        <v>44</v>
+      </c>
+      <c r="B396" t="s">
+        <v>21</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A397" t="s">
+        <v>44</v>
+      </c>
+      <c r="B397" t="s">
+        <v>22</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A398" t="s">
+        <v>44</v>
+      </c>
+      <c r="B398" t="s">
+        <v>23</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A399" t="s">
+        <v>44</v>
+      </c>
+      <c r="B399" t="s">
+        <v>24</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A400" t="s">
+        <v>44</v>
+      </c>
+      <c r="B400" t="s">
+        <v>25</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A401" t="s">
+        <v>44</v>
+      </c>
+      <c r="B401" t="s">
+        <v>26</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A402" t="s">
+        <v>44</v>
+      </c>
+      <c r="B402" t="s">
+        <v>50</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A403" t="s">
+        <v>44</v>
+      </c>
+      <c r="B403" t="s">
+        <v>51</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A404" t="s">
+        <v>44</v>
+      </c>
+      <c r="B404" t="s">
+        <v>27</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A405" t="s">
+        <v>44</v>
+      </c>
+      <c r="B405" t="s">
+        <v>28</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A406" t="s">
+        <v>44</v>
+      </c>
+      <c r="B406" t="s">
+        <v>29</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A407" t="s">
+        <v>44</v>
+      </c>
+      <c r="B407" t="s">
+        <v>30</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A408" t="s">
+        <v>44</v>
+      </c>
+      <c r="B408" t="s">
+        <v>31</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A409" t="s">
+        <v>44</v>
+      </c>
+      <c r="B409" t="s">
+        <v>32</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A410" t="s">
+        <v>44</v>
+      </c>
+      <c r="B410" t="s">
+        <v>33</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A411" t="s">
+        <v>44</v>
+      </c>
+      <c r="B411" t="s">
+        <v>34</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A412" t="s">
+        <v>44</v>
+      </c>
+      <c r="B412" t="s">
+        <v>35</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A413" t="s">
+        <v>44</v>
+      </c>
+      <c r="B413" t="s">
+        <v>36</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A414" t="s">
+        <v>44</v>
+      </c>
+      <c r="B414" t="s">
+        <v>37</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A415" t="s">
+        <v>44</v>
+      </c>
+      <c r="B415" t="s">
+        <v>73</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A416" t="s">
+        <v>44</v>
+      </c>
+      <c r="B416" t="s">
+        <v>74</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A417" t="s">
+        <v>44</v>
+      </c>
+      <c r="B417" t="s">
+        <v>75</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A418" t="s">
+        <v>44</v>
+      </c>
+      <c r="B418" t="s">
+        <v>42</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A419" t="s">
+        <v>44</v>
+      </c>
+      <c r="B419" t="s">
+        <v>76</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A420" t="s">
+        <v>44</v>
+      </c>
+      <c r="B420" t="s">
+        <v>77</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A421" t="s">
+        <v>44</v>
+      </c>
+      <c r="B421" t="s">
+        <v>3</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A422" t="s">
+        <v>44</v>
+      </c>
+      <c r="B422" t="s">
+        <v>4</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A423" t="s">
+        <v>44</v>
+      </c>
+      <c r="B423" t="s">
+        <v>5</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A424" t="s">
+        <v>44</v>
+      </c>
+      <c r="B424" t="s">
+        <v>6</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A425" t="s">
+        <v>44</v>
+      </c>
+      <c r="B425" t="s">
+        <v>39</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A426" t="s">
+        <v>44</v>
+      </c>
+      <c r="B426" t="s">
+        <v>7</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A427" t="s">
+        <v>44</v>
+      </c>
+      <c r="B427" t="s">
+        <v>8</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A428" t="s">
+        <v>44</v>
+      </c>
+      <c r="B428" t="s">
+        <v>9</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A429" t="s">
+        <v>44</v>
+      </c>
+      <c r="B429" t="s">
+        <v>10</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A430" t="s">
+        <v>44</v>
+      </c>
+      <c r="B430" t="s">
+        <v>11</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A431" t="s">
+        <v>44</v>
+      </c>
+      <c r="B431" t="s">
+        <v>12</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A432" t="s">
+        <v>44</v>
+      </c>
+      <c r="B432" t="s">
+        <v>13</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A433" t="s">
+        <v>44</v>
+      </c>
+      <c r="B433" t="s">
         <v>78</v>
       </c>
-      <c r="B278" t="s">
-        <v>45</v>
-      </c>
-      <c r="C278" s="2" t="s">
+      <c r="C433" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A434" t="s">
+        <v>44</v>
+      </c>
+      <c r="B434" t="s">
+        <v>15</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A435" t="s">
+        <v>44</v>
+      </c>
+      <c r="B435" t="s">
+        <v>16</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A436" t="s">
+        <v>44</v>
+      </c>
+      <c r="B436" t="s">
+        <v>17</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A437" t="s">
+        <v>44</v>
+      </c>
+      <c r="B437" t="s">
+        <v>79</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A438" t="s">
+        <v>44</v>
+      </c>
+      <c r="B438" t="s">
+        <v>18</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A439" t="s">
+        <v>44</v>
+      </c>
+      <c r="B439" t="s">
         <v>80</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A440" t="s">
+        <v>44</v>
+      </c>
+      <c r="B440" t="s">
+        <v>20</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A441" t="s">
+        <v>44</v>
+      </c>
+      <c r="B441" t="s">
+        <v>81</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A442" t="s">
+        <v>44</v>
+      </c>
+      <c r="B442" t="s">
+        <v>82</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A443" t="s">
+        <v>44</v>
+      </c>
+      <c r="B443" t="s">
+        <v>83</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A444" t="s">
+        <v>44</v>
+      </c>
+      <c r="B444" t="s">
+        <v>84</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A445" t="s">
+        <v>44</v>
+      </c>
+      <c r="B445" t="s">
+        <v>85</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A446" t="s">
+        <v>44</v>
+      </c>
+      <c r="B446" t="s">
+        <v>26</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A447" t="s">
+        <v>44</v>
+      </c>
+      <c r="B447" t="s">
+        <v>86</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A448" t="s">
+        <v>44</v>
+      </c>
+      <c r="B448" t="s">
+        <v>51</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A449" t="s">
+        <v>44</v>
+      </c>
+      <c r="B449" t="s">
+        <v>27</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A450" t="s">
+        <v>44</v>
+      </c>
+      <c r="B450" t="s">
+        <v>87</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A451" t="s">
+        <v>44</v>
+      </c>
+      <c r="B451" t="s">
+        <v>88</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A452" t="s">
+        <v>44</v>
+      </c>
+      <c r="B452" t="s">
+        <v>30</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A453" t="s">
+        <v>44</v>
+      </c>
+      <c r="B453" t="s">
+        <v>89</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A454" t="s">
+        <v>44</v>
+      </c>
+      <c r="B454" t="s">
+        <v>90</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A455" t="s">
+        <v>44</v>
+      </c>
+      <c r="B455" t="s">
+        <v>36</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A456" t="s">
+        <v>44</v>
+      </c>
+      <c r="B456" t="s">
+        <v>91</v>
+      </c>
+      <c r="C456" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
